--- a/Statistics for Data Science and Business Analysis/Section 4/2.7.Mean-median-and-mode-exercise.xlsx
+++ b/Statistics for Data Science and Business Analysis/Section 4/2.7.Mean-median-and-mode-exercise.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics for Data Science and Business Analysis\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos de Mi Repositorio\Statistics for Data Science and Business Analysis\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E0CD78-9AB2-4A9D-ADD0-5031A118FE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean, median and mode" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Mean, median and mode</t>
   </si>
@@ -52,6 +61,21 @@
   </si>
   <si>
     <t xml:space="preserve">You have a sample of 11 people and their personal annual income. </t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Annual income (Ordered)</t>
+  </si>
+  <si>
+    <t>Vemos que la mediana dista mucho de la media debido a que hay uno o más valores extremos o que son de mayor valor al ingreso de la mayoría.</t>
   </si>
 </sst>
 </file>
@@ -59,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -111,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,12 +152,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -141,21 +174,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -172,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,40 +509,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P22"/>
+  <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -509,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -517,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -525,11 +565,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="2:16" ht="12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -543,12 +583,13 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -560,18 +601,19 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="2:16" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="10" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -579,18 +621,22 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="2:16" ht="12" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="10">
         <v>62000</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10">
+        <f>AVERAGE(B11:B21)</f>
+        <v>189848.18181818182</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -598,18 +644,22 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="2:16" ht="12" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="10">
         <v>64000</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10">
+        <f>MEDIAN(B11:B21)</f>
+        <v>55000</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -617,18 +667,22 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="2:16" ht="12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
         <v>49000</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14">
+        <f>_xlfn.MODE.SNGL(B11:B21)</f>
+        <v>64000</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -636,10 +690,9 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="10">
         <v>324000</v>
       </c>
       <c r="C14" s="7"/>
@@ -655,10 +708,9 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="10">
         <v>1264000</v>
       </c>
       <c r="C15" s="7"/>
@@ -674,14 +726,15 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="2:16" ht="12" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="10">
         <v>54330</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -693,17 +746,18 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="10">
         <v>64000</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -712,17 +766,16 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="10">
         <v>51000</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -731,17 +784,16 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="10">
         <v>55000</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -750,17 +802,16 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="10">
         <v>48000</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -769,17 +820,16 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+    </row>
+    <row r="21" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
         <v>53000</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -788,15 +838,14 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -805,9 +854,80 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="10">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="10">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="10">
+        <v>54330</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="10">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="10">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="10">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="10">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="10">
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>1264000</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:B35">
+    <sortCondition ref="B25"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D17:G23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
